--- a/Programacion/CSharp/Parcial2/Punto5.xlsx
+++ b/Programacion/CSharp/Parcial2/Punto5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Programacion\CSharp\Parcial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05B45B-7766-4723-82B9-A62F25116A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49646F3-1D07-4435-BCA1-B2D3C57ABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{70DAFB93-4721-4BCF-A7B2-11E4A177FAE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{70DAFB93-4721-4BCF-A7B2-11E4A177FAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Gato</t>
   </si>
@@ -76,6 +77,48 @@
   </si>
   <si>
     <t>hambre--</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>todo desde Persona</t>
+  </si>
+  <si>
+    <t>materia</t>
+  </si>
+  <si>
+    <t>curso</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>Profesor privado</t>
+  </si>
+  <si>
+    <t>Profesor público</t>
+  </si>
+  <si>
+    <t>Todo de Profesor</t>
+  </si>
+  <si>
+    <t>estudiantes</t>
+  </si>
+  <si>
+    <t>colegio</t>
   </si>
 </sst>
 </file>
@@ -132,11 +175,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C3D832-1FF7-4563-84DC-710F09E14EE3}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +589,171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BD30F-BDDD-49F5-BEC1-46D1BA81FD1E}">
+  <dimension ref="B1:F16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>